--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.396148981586282</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H2">
-        <v>0.396148981586282</v>
+        <v>7.725334</v>
       </c>
       <c r="I2">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J2">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0818483001015924</v>
+        <v>0.1152486666666667</v>
       </c>
       <c r="N2">
-        <v>0.0818483001015924</v>
+        <v>0.345746</v>
       </c>
       <c r="O2">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270826</v>
       </c>
       <c r="P2">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270825</v>
       </c>
       <c r="Q2">
-        <v>0.03242412072981421</v>
+        <v>0.2967781476848889</v>
       </c>
       <c r="R2">
-        <v>0.03242412072981421</v>
+        <v>2.671003329164</v>
       </c>
       <c r="S2">
-        <v>1.580405088002104E-07</v>
+        <v>8.149143485106151E-07</v>
       </c>
       <c r="T2">
-        <v>1.580405088002104E-07</v>
+        <v>8.149143485106148E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.396148981586282</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H3">
-        <v>0.396148981586282</v>
+        <v>7.725334</v>
       </c>
       <c r="I3">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J3">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.2624317428959</v>
+        <v>0.006638666666666667</v>
       </c>
       <c r="N3">
-        <v>94.2624317428959</v>
+        <v>0.019916</v>
       </c>
       <c r="O3">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="P3">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="Q3">
-        <v>37.34196633679463</v>
+        <v>0.01709530577155556</v>
       </c>
       <c r="R3">
-        <v>37.34196633679463</v>
+        <v>0.153857751944</v>
       </c>
       <c r="S3">
-        <v>0.0001820108988812406</v>
+        <v>4.694149510026843E-08</v>
       </c>
       <c r="T3">
-        <v>0.0001820108988812406</v>
+        <v>4.694149510026842E-08</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.396148981586282</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H4">
-        <v>0.396148981586282</v>
+        <v>7.725334</v>
       </c>
       <c r="I4">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J4">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>173.000693656401</v>
+        <v>153.646004</v>
       </c>
       <c r="N4">
-        <v>173.000693656401</v>
+        <v>460.938012</v>
       </c>
       <c r="O4">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="P4">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="Q4">
-        <v>68.53404860570362</v>
+        <v>395.6555662217787</v>
       </c>
       <c r="R4">
-        <v>68.53404860570362</v>
+        <v>3560.900095996008</v>
       </c>
       <c r="S4">
-        <v>0.0003340462491500786</v>
+        <v>0.001086418931101902</v>
       </c>
       <c r="T4">
-        <v>0.0003340462491500786</v>
+        <v>0.001086418931101902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.396148981586282</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H5">
-        <v>0.396148981586282</v>
+        <v>7.725334</v>
       </c>
       <c r="I5">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J5">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.6258879841602</v>
+        <v>224.6466153333333</v>
       </c>
       <c r="N5">
-        <v>24.6258879841602</v>
+        <v>673.939846</v>
       </c>
       <c r="O5">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507024</v>
       </c>
       <c r="P5">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507023</v>
       </c>
       <c r="Q5">
-        <v>9.755520445582922</v>
+        <v>578.4900451398405</v>
       </c>
       <c r="R5">
-        <v>9.755520445582922</v>
+        <v>5206.410406258564</v>
       </c>
       <c r="S5">
-        <v>4.755001462269766E-05</v>
+        <v>0.001588458725591718</v>
       </c>
       <c r="T5">
-        <v>4.755001462269766E-05</v>
+        <v>0.001588458725591718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>366.39644442293</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H6">
-        <v>366.39644442293</v>
+        <v>7.725334</v>
       </c>
       <c r="I6">
-        <v>0.521423947882187</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J6">
-        <v>0.521423947882187</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0818483001015924</v>
+        <v>26.38673933333333</v>
       </c>
       <c r="N6">
-        <v>0.0818483001015924</v>
+        <v>79.160218</v>
       </c>
       <c r="O6">
-        <v>0.0002803303714269286</v>
+        <v>0.06517961744154104</v>
       </c>
       <c r="P6">
-        <v>0.0002803303714269286</v>
+        <v>0.06517961744154101</v>
       </c>
       <c r="Q6">
-        <v>29.9889261392844</v>
+        <v>67.94879150697912</v>
       </c>
       <c r="R6">
-        <v>29.9889261392844</v>
+        <v>611.5391235628121</v>
       </c>
       <c r="S6">
-        <v>0.0001461709689807089</v>
+        <v>0.0001865785793022284</v>
       </c>
       <c r="T6">
-        <v>0.0001461709689807089</v>
+        <v>0.0001865785793022284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>366.39644442293</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H7">
-        <v>366.39644442293</v>
+        <v>7.725334</v>
       </c>
       <c r="I7">
-        <v>0.521423947882187</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J7">
-        <v>0.521423947882187</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>94.2624317428959</v>
+        <v>0.02990166666666667</v>
       </c>
       <c r="N7">
-        <v>94.2624317428959</v>
+        <v>0.08970500000000001</v>
       </c>
       <c r="O7">
-        <v>0.3228487637408783</v>
+        <v>7.386207024585807E-05</v>
       </c>
       <c r="P7">
-        <v>0.3228487637408783</v>
+        <v>7.386207024585805E-05</v>
       </c>
       <c r="Q7">
-        <v>34537.41983325619</v>
+        <v>0.0770001207188889</v>
       </c>
       <c r="R7">
-        <v>34537.41983325619</v>
+        <v>0.69300108647</v>
       </c>
       <c r="S7">
-        <v>0.1683410769586522</v>
+        <v>2.114323567970265E-07</v>
       </c>
       <c r="T7">
-        <v>0.1683410769586522</v>
+        <v>2.114323567970265E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>366.39644442293</v>
+        <v>378.538676</v>
       </c>
       <c r="H8">
-        <v>366.39644442293</v>
+        <v>1135.616028</v>
       </c>
       <c r="I8">
-        <v>0.521423947882187</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J8">
-        <v>0.521423947882187</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>173.000693656401</v>
+        <v>0.1152486666666667</v>
       </c>
       <c r="N8">
-        <v>173.000693656401</v>
+        <v>0.345746</v>
       </c>
       <c r="O8">
-        <v>0.5925272565174708</v>
+        <v>0.0002846832990270826</v>
       </c>
       <c r="P8">
-        <v>0.5925272565174708</v>
+        <v>0.0002846832990270825</v>
       </c>
       <c r="Q8">
-        <v>63386.83903840587</v>
+        <v>43.62607769076533</v>
       </c>
       <c r="R8">
-        <v>63386.83903840587</v>
+        <v>392.634699216888</v>
       </c>
       <c r="S8">
-        <v>0.308957901321141</v>
+        <v>0.0001197915579592846</v>
       </c>
       <c r="T8">
-        <v>0.308957901321141</v>
+        <v>0.0001197915579592846</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>366.39644442293</v>
+        <v>378.538676</v>
       </c>
       <c r="H9">
-        <v>366.39644442293</v>
+        <v>1135.616028</v>
       </c>
       <c r="I9">
-        <v>0.521423947882187</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J9">
-        <v>0.521423947882187</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>24.6258879841602</v>
+        <v>0.006638666666666667</v>
       </c>
       <c r="N9">
-        <v>24.6258879841602</v>
+        <v>0.019916</v>
       </c>
       <c r="O9">
-        <v>0.08434364937022384</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="P9">
-        <v>0.08434364937022384</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="Q9">
-        <v>9022.837798153652</v>
+        <v>2.512992090405333</v>
       </c>
       <c r="R9">
-        <v>9022.837798153652</v>
+        <v>22.616928813648</v>
       </c>
       <c r="S9">
-        <v>0.04397879863341306</v>
+        <v>6.900350743948195E-06</v>
       </c>
       <c r="T9">
-        <v>0.04397879863341306</v>
+        <v>6.900350743948195E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>115.440029325556</v>
+        <v>378.538676</v>
       </c>
       <c r="H10">
-        <v>115.440029325556</v>
+        <v>1135.616028</v>
       </c>
       <c r="I10">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J10">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0818483001015924</v>
+        <v>153.646004</v>
       </c>
       <c r="N10">
-        <v>0.0818483001015924</v>
+        <v>460.938012</v>
       </c>
       <c r="O10">
-        <v>0.0002803303714269286</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="P10">
-        <v>0.0002803303714269286</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="Q10">
-        <v>9.448570163974734</v>
+        <v>58160.9549268507</v>
       </c>
       <c r="R10">
-        <v>9.448570163974734</v>
+        <v>523448.5943416563</v>
       </c>
       <c r="S10">
-        <v>4.605388835651583E-05</v>
+        <v>0.1597024479824363</v>
       </c>
       <c r="T10">
-        <v>4.605388835651583E-05</v>
+        <v>0.1597024479824363</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>115.440029325556</v>
+        <v>378.538676</v>
       </c>
       <c r="H11">
-        <v>115.440029325556</v>
+        <v>1135.616028</v>
       </c>
       <c r="I11">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J11">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>94.2624317428959</v>
+        <v>224.6466153333333</v>
       </c>
       <c r="N11">
-        <v>94.2624317428959</v>
+        <v>673.939846</v>
       </c>
       <c r="O11">
-        <v>0.3228487637408783</v>
+        <v>0.5549143553507024</v>
       </c>
       <c r="P11">
-        <v>0.3228487637408783</v>
+        <v>0.5549143553507023</v>
       </c>
       <c r="Q11">
-        <v>10881.65788469812</v>
+        <v>85037.43233616129</v>
       </c>
       <c r="R11">
-        <v>10881.65788469812</v>
+        <v>765336.8910254516</v>
       </c>
       <c r="S11">
-        <v>0.05303899411854202</v>
+        <v>0.2335017733341249</v>
       </c>
       <c r="T11">
-        <v>0.05303899411854202</v>
+        <v>0.2335017733341249</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>115.440029325556</v>
+        <v>378.538676</v>
       </c>
       <c r="H12">
-        <v>115.440029325556</v>
+        <v>1135.616028</v>
       </c>
       <c r="I12">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J12">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>173.000693656401</v>
+        <v>26.38673933333333</v>
       </c>
       <c r="N12">
-        <v>173.000693656401</v>
+        <v>79.160218</v>
       </c>
       <c r="O12">
-        <v>0.5925272565174708</v>
+        <v>0.06517961744154104</v>
       </c>
       <c r="P12">
-        <v>0.5925272565174708</v>
+        <v>0.06517961744154101</v>
       </c>
       <c r="Q12">
-        <v>19971.20514903646</v>
+        <v>9988.401371197122</v>
       </c>
       <c r="R12">
-        <v>19971.20514903646</v>
+        <v>89895.6123407741</v>
       </c>
       <c r="S12">
-        <v>0.09734294568564508</v>
+        <v>0.02742685625463955</v>
       </c>
       <c r="T12">
-        <v>0.09734294568564508</v>
+        <v>0.02742685625463955</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>115.440029325556</v>
+        <v>378.538676</v>
       </c>
       <c r="H13">
-        <v>115.440029325556</v>
+        <v>1135.616028</v>
       </c>
       <c r="I13">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J13">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>24.6258879841602</v>
+        <v>0.02990166666666667</v>
       </c>
       <c r="N13">
-        <v>24.6258879841602</v>
+        <v>0.08970500000000001</v>
       </c>
       <c r="O13">
-        <v>0.08434364937022384</v>
+        <v>7.386207024585807E-05</v>
       </c>
       <c r="P13">
-        <v>0.08434364937022384</v>
+        <v>7.386207024585805E-05</v>
       </c>
       <c r="Q13">
-        <v>2842.813231059311</v>
+        <v>11.31893731019333</v>
       </c>
       <c r="R13">
-        <v>2842.813231059311</v>
+        <v>101.87043579174</v>
       </c>
       <c r="S13">
-        <v>0.01385634025990619</v>
+        <v>3.108033558374538E-05</v>
       </c>
       <c r="T13">
-        <v>0.01385634025990619</v>
+        <v>3.108033558374537E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>94.5737157357929</v>
+        <v>280.8555153333334</v>
       </c>
       <c r="H14">
-        <v>94.5737157357929</v>
+        <v>842.566546</v>
       </c>
       <c r="I14">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="J14">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0818483001015924</v>
+        <v>0.1152486666666667</v>
       </c>
       <c r="N14">
-        <v>0.0818483001015924</v>
+        <v>0.345746</v>
       </c>
       <c r="O14">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270826</v>
       </c>
       <c r="P14">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270825</v>
       </c>
       <c r="Q14">
-        <v>7.740697867265869</v>
+        <v>32.36822366814622</v>
       </c>
       <c r="R14">
-        <v>7.740697867265869</v>
+        <v>291.314013013316</v>
       </c>
       <c r="S14">
-        <v>3.772943727928226E-05</v>
+        <v>8.887894917040858E-05</v>
       </c>
       <c r="T14">
-        <v>3.772943727928226E-05</v>
+        <v>8.887894917040856E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>94.5737157357929</v>
+        <v>280.8555153333334</v>
       </c>
       <c r="H15">
-        <v>94.5737157357929</v>
+        <v>842.566546</v>
       </c>
       <c r="I15">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="J15">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>94.2624317428959</v>
+        <v>0.006638666666666667</v>
       </c>
       <c r="N15">
-        <v>94.2624317428959</v>
+        <v>0.019916</v>
       </c>
       <c r="O15">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="P15">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="Q15">
-        <v>8914.748424217218</v>
+        <v>1.864506147792889</v>
       </c>
       <c r="R15">
-        <v>8914.748424217218</v>
+        <v>16.780555330136</v>
       </c>
       <c r="S15">
-        <v>0.04345195320882447</v>
+        <v>5.119692351257447E-06</v>
       </c>
       <c r="T15">
-        <v>0.04345195320882447</v>
+        <v>5.119692351257446E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>94.5737157357929</v>
+        <v>280.8555153333334</v>
       </c>
       <c r="H16">
-        <v>94.5737157357929</v>
+        <v>842.566546</v>
       </c>
       <c r="I16">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="J16">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>173.000693656401</v>
+        <v>153.646004</v>
       </c>
       <c r="N16">
-        <v>173.000693656401</v>
+        <v>460.938012</v>
       </c>
       <c r="O16">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="P16">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="Q16">
-        <v>16361.31842395546</v>
+        <v>43152.3276323274</v>
       </c>
       <c r="R16">
-        <v>16361.31842395546</v>
+        <v>388370.9486909466</v>
       </c>
       <c r="S16">
-        <v>0.07974776278163065</v>
+        <v>0.1184907016690206</v>
       </c>
       <c r="T16">
-        <v>0.07974776278163065</v>
+        <v>0.1184907016690205</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>94.5737157357929</v>
+        <v>280.8555153333334</v>
       </c>
       <c r="H17">
-        <v>94.5737157357929</v>
+        <v>842.566546</v>
       </c>
       <c r="I17">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="J17">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.6258879841602</v>
+        <v>224.6466153333333</v>
       </c>
       <c r="N17">
-        <v>24.6258879841602</v>
+        <v>673.939846</v>
       </c>
       <c r="O17">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507024</v>
       </c>
       <c r="P17">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507023</v>
       </c>
       <c r="Q17">
-        <v>2328.961729955445</v>
+        <v>63093.24091733244</v>
       </c>
       <c r="R17">
-        <v>2328.961729955445</v>
+        <v>567839.1682559919</v>
       </c>
       <c r="S17">
-        <v>0.01135174334704266</v>
+        <v>0.1732458663774765</v>
       </c>
       <c r="T17">
-        <v>0.01135174334704266</v>
+        <v>0.1732458663774764</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>119.244640755233</v>
+        <v>280.8555153333334</v>
       </c>
       <c r="H18">
-        <v>119.244640755233</v>
+        <v>842.566546</v>
       </c>
       <c r="I18">
-        <v>0.169698730140012</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="J18">
-        <v>0.169698730140012</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0818483001015924</v>
+        <v>26.38673933333333</v>
       </c>
       <c r="N18">
-        <v>0.0818483001015924</v>
+        <v>79.160218</v>
       </c>
       <c r="O18">
-        <v>0.0002803303714269286</v>
+        <v>0.06517961744154104</v>
       </c>
       <c r="P18">
-        <v>0.0002803303714269286</v>
+        <v>0.06517961744154101</v>
       </c>
       <c r="Q18">
-        <v>9.759971142040886</v>
+        <v>7410.861273429671</v>
       </c>
       <c r="R18">
-        <v>9.759971142040886</v>
+        <v>66697.75146086703</v>
       </c>
       <c r="S18">
-        <v>4.75717080508277E-05</v>
+        <v>0.02034926504410886</v>
       </c>
       <c r="T18">
-        <v>4.75717080508277E-05</v>
+        <v>0.02034926504410885</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>119.244640755233</v>
+        <v>280.8555153333334</v>
       </c>
       <c r="H19">
-        <v>119.244640755233</v>
+        <v>842.566546</v>
       </c>
       <c r="I19">
-        <v>0.169698730140012</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="J19">
-        <v>0.169698730140012</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>94.2624317428959</v>
+        <v>0.02990166666666667</v>
       </c>
       <c r="N19">
-        <v>94.2624317428959</v>
+        <v>0.08970500000000001</v>
       </c>
       <c r="O19">
-        <v>0.3228487637408783</v>
+        <v>7.386207024585807E-05</v>
       </c>
       <c r="P19">
-        <v>0.3228487637408783</v>
+        <v>7.386207024585805E-05</v>
       </c>
       <c r="Q19">
-        <v>11240.28980989629</v>
+        <v>8.398048000992224</v>
       </c>
       <c r="R19">
-        <v>11240.28980989629</v>
+        <v>75.58243200893001</v>
       </c>
       <c r="S19">
-        <v>0.05478702523409981</v>
+        <v>2.305995191652688E-05</v>
       </c>
       <c r="T19">
-        <v>0.05478702523409981</v>
+        <v>2.305995191652687E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>119.244640755233</v>
+        <v>98.90178066666668</v>
       </c>
       <c r="H20">
-        <v>119.244640755233</v>
+        <v>296.705342</v>
       </c>
       <c r="I20">
-        <v>0.169698730140012</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="J20">
-        <v>0.169698730140012</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>173.000693656401</v>
+        <v>0.1152486666666667</v>
       </c>
       <c r="N20">
-        <v>173.000693656401</v>
+        <v>0.345746</v>
       </c>
       <c r="O20">
-        <v>0.5925272565174708</v>
+        <v>0.0002846832990270826</v>
       </c>
       <c r="P20">
-        <v>0.5925272565174708</v>
+        <v>0.0002846832990270825</v>
       </c>
       <c r="Q20">
-        <v>20629.40556546365</v>
+        <v>11.39829835279245</v>
       </c>
       <c r="R20">
-        <v>20629.40556546365</v>
+        <v>102.584685175132</v>
       </c>
       <c r="S20">
-        <v>0.10055112300436</v>
+        <v>3.129825072618857E-05</v>
       </c>
       <c r="T20">
-        <v>0.10055112300436</v>
+        <v>3.129825072618856E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>119.244640755233</v>
+        <v>98.90178066666668</v>
       </c>
       <c r="H21">
-        <v>119.244640755233</v>
+        <v>296.705342</v>
       </c>
       <c r="I21">
-        <v>0.169698730140012</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="J21">
-        <v>0.169698730140012</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>24.6258879841602</v>
+        <v>0.006638666666666667</v>
       </c>
       <c r="N21">
-        <v>24.6258879841602</v>
+        <v>0.019916</v>
       </c>
       <c r="O21">
-        <v>0.08434364937022384</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="P21">
-        <v>0.08434364937022384</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="Q21">
-        <v>2936.505165949792</v>
+        <v>0.6565759545857779</v>
       </c>
       <c r="R21">
-        <v>2936.505165949792</v>
+        <v>5.909183591272001</v>
       </c>
       <c r="S21">
-        <v>0.01431301019350141</v>
+        <v>1.802872517578718E-06</v>
       </c>
       <c r="T21">
-        <v>0.01431301019350141</v>
+        <v>1.802872517578718E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.63336412577723</v>
+        <v>98.90178066666668</v>
       </c>
       <c r="H22">
-        <v>6.63336412577723</v>
+        <v>296.705342</v>
       </c>
       <c r="I22">
-        <v>0.00944003404741112</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="J22">
-        <v>0.00944003404741112</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.0818483001015924</v>
+        <v>153.646004</v>
       </c>
       <c r="N22">
-        <v>0.0818483001015924</v>
+        <v>460.938012</v>
       </c>
       <c r="O22">
-        <v>0.0002803303714269286</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="P22">
-        <v>0.0002803303714269286</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="Q22">
-        <v>0.5429295776497518</v>
+        <v>15195.86338791779</v>
       </c>
       <c r="R22">
-        <v>0.5429295776497518</v>
+        <v>136762.7704912601</v>
       </c>
       <c r="S22">
-        <v>2.646328250793611E-06</v>
+        <v>0.04172587237106695</v>
       </c>
       <c r="T22">
-        <v>2.646328250793611E-06</v>
+        <v>0.04172587237106695</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.63336412577723</v>
+        <v>98.90178066666668</v>
       </c>
       <c r="H23">
-        <v>6.63336412577723</v>
+        <v>296.705342</v>
       </c>
       <c r="I23">
-        <v>0.00944003404741112</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="J23">
-        <v>0.00944003404741112</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>94.2624317428959</v>
+        <v>224.6466153333333</v>
       </c>
       <c r="N23">
-        <v>94.2624317428959</v>
+        <v>673.939846</v>
       </c>
       <c r="O23">
-        <v>0.3228487637408783</v>
+        <v>0.5549143553507024</v>
       </c>
       <c r="P23">
-        <v>0.3228487637408783</v>
+        <v>0.5549143553507023</v>
       </c>
       <c r="Q23">
-        <v>625.2770331318504</v>
+        <v>22217.95027720637</v>
       </c>
       <c r="R23">
-        <v>625.2770331318504</v>
+        <v>199961.5524948573</v>
       </c>
       <c r="S23">
-        <v>0.00304770332187848</v>
+        <v>0.06100761331867009</v>
       </c>
       <c r="T23">
-        <v>0.00304770332187848</v>
+        <v>0.06100761331867009</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,861 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.63336412577723</v>
+        <v>98.90178066666668</v>
       </c>
       <c r="H24">
-        <v>6.63336412577723</v>
+        <v>296.705342</v>
       </c>
       <c r="I24">
-        <v>0.00944003404741112</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="J24">
-        <v>0.00944003404741112</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>173.000693656401</v>
+        <v>26.38673933333333</v>
       </c>
       <c r="N24">
-        <v>173.000693656401</v>
+        <v>79.160218</v>
       </c>
       <c r="O24">
-        <v>0.5925272565174708</v>
+        <v>0.06517961744154104</v>
       </c>
       <c r="P24">
-        <v>0.5925272565174708</v>
+        <v>0.06517961744154101</v>
       </c>
       <c r="Q24">
-        <v>1147.576595034947</v>
+        <v>2609.69550605384</v>
       </c>
       <c r="R24">
-        <v>1147.576595034947</v>
+        <v>23487.25955448456</v>
       </c>
       <c r="S24">
-        <v>0.005593477475544027</v>
+        <v>0.00716588579623118</v>
       </c>
       <c r="T24">
-        <v>0.005593477475544027</v>
+        <v>0.007165885796231178</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>98.90178066666668</v>
+      </c>
+      <c r="H25">
+        <v>296.705342</v>
+      </c>
+      <c r="I25">
+        <v>0.1099405930490186</v>
+      </c>
+      <c r="J25">
+        <v>0.1099405930490186</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.02990166666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.08970500000000001</v>
+      </c>
+      <c r="O25">
+        <v>7.386207024585807E-05</v>
+      </c>
+      <c r="P25">
+        <v>7.386207024585805E-05</v>
+      </c>
+      <c r="Q25">
+        <v>2.957328078234445</v>
+      </c>
+      <c r="R25">
+        <v>26.61595270411</v>
+      </c>
+      <c r="S25">
+        <v>8.12043980665791E-06</v>
+      </c>
+      <c r="T25">
+        <v>8.120439806657908E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>6.63336412577723</v>
-      </c>
-      <c r="H25">
-        <v>6.63336412577723</v>
-      </c>
-      <c r="I25">
-        <v>0.00944003404741112</v>
-      </c>
-      <c r="J25">
-        <v>0.00944003404741112</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>24.6258879841602</v>
-      </c>
-      <c r="N25">
-        <v>24.6258879841602</v>
-      </c>
-      <c r="O25">
-        <v>0.08434364937022384</v>
-      </c>
-      <c r="P25">
-        <v>0.08434364937022384</v>
-      </c>
-      <c r="Q25">
-        <v>163.3524819195368</v>
-      </c>
-      <c r="R25">
-        <v>163.3524819195368</v>
-      </c>
-      <c r="S25">
-        <v>0.0007962069217378186</v>
-      </c>
-      <c r="T25">
-        <v>0.0007962069217378186</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H26">
+        <v>396.238258</v>
+      </c>
+      <c r="I26">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J26">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1152486666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.345746</v>
+      </c>
+      <c r="O26">
+        <v>0.0002846832990270826</v>
+      </c>
+      <c r="P26">
+        <v>0.0002846832990270825</v>
+      </c>
+      <c r="Q26">
+        <v>15.22197697227422</v>
+      </c>
+      <c r="R26">
+        <v>136.997792750468</v>
+      </c>
+      <c r="S26">
+        <v>4.179757689092161E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.17975768909216E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H27">
+        <v>396.238258</v>
+      </c>
+      <c r="I27">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J27">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.006638666666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.019916</v>
+      </c>
+      <c r="O27">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="P27">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="Q27">
+        <v>0.876831238480889</v>
+      </c>
+      <c r="R27">
+        <v>7.891481146328</v>
+      </c>
+      <c r="S27">
+        <v>2.407664994995155E-06</v>
+      </c>
+      <c r="T27">
+        <v>2.407664994995155E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H28">
+        <v>396.238258</v>
+      </c>
+      <c r="I28">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J28">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>153.646004</v>
+      </c>
+      <c r="N28">
+        <v>460.938012</v>
+      </c>
+      <c r="O28">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="P28">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="Q28">
+        <v>20293.47499120701</v>
+      </c>
+      <c r="R28">
+        <v>182641.2749208631</v>
+      </c>
+      <c r="S28">
+        <v>0.05572325348237882</v>
+      </c>
+      <c r="T28">
+        <v>0.05572325348237882</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H29">
+        <v>396.238258</v>
+      </c>
+      <c r="I29">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J29">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>224.6466153333333</v>
+      </c>
+      <c r="N29">
+        <v>673.939846</v>
+      </c>
+      <c r="O29">
+        <v>0.5549143553507024</v>
+      </c>
+      <c r="P29">
+        <v>0.5549143553507023</v>
+      </c>
+      <c r="Q29">
+        <v>29671.19450842536</v>
+      </c>
+      <c r="R29">
+        <v>267040.7505758283</v>
+      </c>
+      <c r="S29">
+        <v>0.08147325647452426</v>
+      </c>
+      <c r="T29">
+        <v>0.08147325647452426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H30">
+        <v>396.238258</v>
+      </c>
+      <c r="I30">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J30">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>26.38673933333333</v>
+      </c>
+      <c r="N30">
+        <v>79.160218</v>
+      </c>
+      <c r="O30">
+        <v>0.06517961744154104</v>
+      </c>
+      <c r="P30">
+        <v>0.06517961744154101</v>
+      </c>
+      <c r="Q30">
+        <v>3485.145209246694</v>
+      </c>
+      <c r="R30">
+        <v>31366.30688322025</v>
+      </c>
+      <c r="S30">
+        <v>0.009569757274291291</v>
+      </c>
+      <c r="T30">
+        <v>0.009569757274291289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H31">
+        <v>396.238258</v>
+      </c>
+      <c r="I31">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J31">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.02990166666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.08970500000000001</v>
+      </c>
+      <c r="O31">
+        <v>7.386207024585807E-05</v>
+      </c>
+      <c r="P31">
+        <v>7.386207024585805E-05</v>
+      </c>
+      <c r="Q31">
+        <v>3.949394770432223</v>
+      </c>
+      <c r="R31">
+        <v>35.54455293389</v>
+      </c>
+      <c r="S31">
+        <v>1.084452642980721E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.084452642980721E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H32">
+        <v>19.927294</v>
+      </c>
+      <c r="I32">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J32">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.1152486666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.345746</v>
+      </c>
+      <c r="O32">
+        <v>0.0002846832990270826</v>
+      </c>
+      <c r="P32">
+        <v>0.0002846832990270825</v>
+      </c>
+      <c r="Q32">
+        <v>0.7655313545915555</v>
+      </c>
+      <c r="R32">
+        <v>6.889782191324</v>
+      </c>
+      <c r="S32">
+        <v>2.102049931768579E-06</v>
+      </c>
+      <c r="T32">
+        <v>2.102049931768579E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H33">
+        <v>19.927294</v>
+      </c>
+      <c r="I33">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J33">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.006638666666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.019916</v>
+      </c>
+      <c r="O33">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="P33">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="Q33">
+        <v>0.04409688747822223</v>
+      </c>
+      <c r="R33">
+        <v>0.396871987304</v>
+      </c>
+      <c r="S33">
+        <v>1.210843406463214E-07</v>
+      </c>
+      <c r="T33">
+        <v>1.210843406463214E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H34">
+        <v>19.927294</v>
+      </c>
+      <c r="I34">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J34">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>153.646004</v>
+      </c>
+      <c r="N34">
+        <v>460.938012</v>
+      </c>
+      <c r="O34">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="P34">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="Q34">
+        <v>1020.583031211059</v>
+      </c>
+      <c r="R34">
+        <v>9185.247280899528</v>
+      </c>
+      <c r="S34">
+        <v>0.002802388796035658</v>
+      </c>
+      <c r="T34">
+        <v>0.002802388796035658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H35">
+        <v>19.927294</v>
+      </c>
+      <c r="I35">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J35">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>224.6466153333333</v>
+      </c>
+      <c r="N35">
+        <v>673.939846</v>
+      </c>
+      <c r="O35">
+        <v>0.5549143553507024</v>
+      </c>
+      <c r="P35">
+        <v>0.5549143553507023</v>
+      </c>
+      <c r="Q35">
+        <v>1492.199716617414</v>
+      </c>
+      <c r="R35">
+        <v>13429.79744955672</v>
+      </c>
+      <c r="S35">
+        <v>0.004097387120314991</v>
+      </c>
+      <c r="T35">
+        <v>0.004097387120314991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H36">
+        <v>19.927294</v>
+      </c>
+      <c r="I36">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J36">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>26.38673933333333</v>
+      </c>
+      <c r="N36">
+        <v>79.160218</v>
+      </c>
+      <c r="O36">
+        <v>0.06517961744154104</v>
+      </c>
+      <c r="P36">
+        <v>0.06517961744154101</v>
+      </c>
+      <c r="Q36">
+        <v>175.2721041322325</v>
+      </c>
+      <c r="R36">
+        <v>1577.448937190092</v>
+      </c>
+      <c r="S36">
+        <v>0.0004812744929679183</v>
+      </c>
+      <c r="T36">
+        <v>0.0004812744929679182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H37">
+        <v>19.927294</v>
+      </c>
+      <c r="I37">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J37">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.02990166666666667</v>
+      </c>
+      <c r="N37">
+        <v>0.08970500000000001</v>
+      </c>
+      <c r="O37">
+        <v>7.386207024585807E-05</v>
+      </c>
+      <c r="P37">
+        <v>7.386207024585805E-05</v>
+      </c>
+      <c r="Q37">
+        <v>0.1986197675855556</v>
+      </c>
+      <c r="R37">
+        <v>1.78757790827</v>
+      </c>
+      <c r="S37">
+        <v>5.453841523236724E-07</v>
+      </c>
+      <c r="T37">
+        <v>5.453841523236723E-07</v>
       </c>
     </row>
   </sheetData>
